--- a/stock_historical_data/1wk/VOEPL.BO.xlsx
+++ b/stock_historical_data/1wk/VOEPL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P130"/>
+  <dimension ref="A1:Q139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1866,7 +1949,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2466,7 +2585,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2766,7 +2903,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3416,7 +3592,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>1</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3868,6 +4071,9 @@
       <c r="P68" t="n">
         <v>2</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3918,6 +4124,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3968,6 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4018,6 +4230,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4068,6 +4283,9 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4118,6 +4336,9 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4168,6 +4389,9 @@
       <c r="P74" t="n">
         <v>1</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4218,6 +4442,9 @@
       <c r="P75" t="n">
         <v>1</v>
       </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4268,6 +4495,9 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4318,6 +4548,9 @@
       <c r="P77" t="n">
         <v>2</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4368,6 +4601,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4418,6 +4654,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4468,6 +4707,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4518,6 +4760,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4568,6 +4813,9 @@
       <c r="P82" t="n">
         <v>0</v>
       </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4618,6 +4866,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4668,6 +4919,9 @@
       <c r="P84" t="n">
         <v>0</v>
       </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4718,6 +4972,9 @@
       <c r="P85" t="n">
         <v>0</v>
       </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4768,6 +5025,9 @@
       <c r="P86" t="n">
         <v>1</v>
       </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4818,6 +5078,9 @@
       <c r="P87" t="n">
         <v>0</v>
       </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4868,6 +5131,9 @@
       <c r="P88" t="n">
         <v>0</v>
       </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4918,6 +5184,9 @@
       <c r="P89" t="n">
         <v>0</v>
       </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4968,6 +5237,9 @@
       <c r="P90" t="n">
         <v>0</v>
       </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5018,6 +5290,9 @@
       <c r="P91" t="n">
         <v>0</v>
       </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5068,6 +5343,9 @@
       <c r="P92" t="n">
         <v>2</v>
       </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5118,6 +5396,9 @@
       <c r="P93" t="n">
         <v>0</v>
       </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5168,6 +5449,9 @@
       <c r="P94" t="n">
         <v>0</v>
       </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5218,6 +5502,9 @@
       <c r="P95" t="n">
         <v>0</v>
       </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5268,6 +5555,9 @@
       <c r="P96" t="n">
         <v>0</v>
       </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5318,6 +5608,9 @@
       <c r="P97" t="n">
         <v>0</v>
       </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5368,6 +5661,9 @@
       <c r="P98" t="n">
         <v>1</v>
       </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5418,6 +5714,9 @@
       <c r="P99" t="n">
         <v>0</v>
       </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5468,6 +5767,9 @@
       <c r="P100" t="n">
         <v>0</v>
       </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5518,6 +5820,9 @@
       <c r="P101" t="n">
         <v>0</v>
       </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5568,6 +5873,9 @@
       <c r="P102" t="n">
         <v>2</v>
       </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5618,6 +5926,9 @@
       <c r="P103" t="n">
         <v>0</v>
       </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5668,6 +5979,9 @@
       <c r="P104" t="n">
         <v>0</v>
       </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5718,6 +6032,9 @@
       <c r="P105" t="n">
         <v>1</v>
       </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5768,6 +6085,9 @@
       <c r="P106" t="n">
         <v>0</v>
       </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5818,6 +6138,9 @@
       <c r="P107" t="n">
         <v>0</v>
       </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5868,6 +6191,9 @@
       <c r="P108" t="n">
         <v>0</v>
       </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5918,6 +6244,9 @@
       <c r="P109" t="n">
         <v>0</v>
       </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5968,6 +6297,9 @@
       <c r="P110" t="n">
         <v>0</v>
       </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6018,6 +6350,9 @@
       <c r="P111" t="n">
         <v>0</v>
       </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6068,6 +6403,9 @@
       <c r="P112" t="n">
         <v>0</v>
       </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6118,6 +6456,9 @@
       <c r="P113" t="n">
         <v>0</v>
       </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6168,6 +6509,9 @@
       <c r="P114" t="n">
         <v>2</v>
       </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6218,6 +6562,9 @@
       <c r="P115" t="n">
         <v>0</v>
       </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6268,6 +6615,9 @@
       <c r="P116" t="n">
         <v>0</v>
       </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6318,6 +6668,9 @@
       <c r="P117" t="n">
         <v>0</v>
       </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6368,6 +6721,9 @@
       <c r="P118" t="n">
         <v>0</v>
       </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6418,6 +6774,9 @@
       <c r="P119" t="n">
         <v>1</v>
       </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6468,6 +6827,9 @@
       <c r="P120" t="n">
         <v>0</v>
       </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6518,6 +6880,9 @@
       <c r="P121" t="n">
         <v>0</v>
       </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6568,6 +6933,9 @@
       <c r="P122" t="n">
         <v>0</v>
       </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6618,6 +6986,9 @@
       <c r="P123" t="n">
         <v>0</v>
       </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6668,6 +7039,9 @@
       <c r="P124" t="n">
         <v>0</v>
       </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6718,6 +7092,9 @@
       <c r="P125" t="n">
         <v>0</v>
       </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6768,6 +7145,9 @@
       <c r="P126" t="n">
         <v>0</v>
       </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6818,6 +7198,9 @@
       <c r="P127" t="n">
         <v>0</v>
       </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6868,6 +7251,9 @@
       <c r="P128" t="n">
         <v>0</v>
       </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6910,13 +7296,16 @@
         <v>8</v>
       </c>
       <c r="N129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O129" t="n">
         <v>0</v>
       </c>
       <c r="P129" t="n">
         <v>2</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -6968,6 +7357,468 @@
       <c r="P130" t="n">
         <v>0</v>
       </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B131" t="n">
+        <v>537.5999755859375</v>
+      </c>
+      <c r="C131" t="n">
+        <v>599</v>
+      </c>
+      <c r="D131" t="n">
+        <v>518.1500244140625</v>
+      </c>
+      <c r="E131" t="n">
+        <v>592.9500122070312</v>
+      </c>
+      <c r="F131" t="n">
+        <v>191000</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+      <c r="I131" t="n">
+        <v>3</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>10</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B132" t="n">
+        <v>610</v>
+      </c>
+      <c r="C132" t="n">
+        <v>622.6500244140625</v>
+      </c>
+      <c r="D132" t="n">
+        <v>553.2999877929688</v>
+      </c>
+      <c r="E132" t="n">
+        <v>622.4500122070312</v>
+      </c>
+      <c r="F132" t="n">
+        <v>130500</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+      <c r="I132" t="n">
+        <v>10</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>11</v>
+      </c>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B133" t="n">
+        <v>621</v>
+      </c>
+      <c r="C133" t="n">
+        <v>622</v>
+      </c>
+      <c r="D133" t="n">
+        <v>574.0499877929688</v>
+      </c>
+      <c r="E133" t="n">
+        <v>596.4000244140625</v>
+      </c>
+      <c r="F133" t="n">
+        <v>130000</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+      <c r="I133" t="n">
+        <v>17</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>12</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B134" t="n">
+        <v>609.9500122070312</v>
+      </c>
+      <c r="C134" t="n">
+        <v>618</v>
+      </c>
+      <c r="D134" t="n">
+        <v>541.5999755859375</v>
+      </c>
+      <c r="E134" t="n">
+        <v>557.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>117500</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+      <c r="I134" t="n">
+        <v>24</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>13</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B135" t="n">
+        <v>545</v>
+      </c>
+      <c r="C135" t="n">
+        <v>585.3499755859375</v>
+      </c>
+      <c r="D135" t="n">
+        <v>531</v>
+      </c>
+      <c r="E135" t="n">
+        <v>554.3499755859375</v>
+      </c>
+      <c r="F135" t="n">
+        <v>96000</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+      <c r="I135" t="n">
+        <v>31</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>14</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B136" t="n">
+        <v>540</v>
+      </c>
+      <c r="C136" t="n">
+        <v>552.5</v>
+      </c>
+      <c r="D136" t="n">
+        <v>501</v>
+      </c>
+      <c r="E136" t="n">
+        <v>544.5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>125500</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+      <c r="I136" t="n">
+        <v>7</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>15</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B137" t="n">
+        <v>564.6500244140625</v>
+      </c>
+      <c r="C137" t="n">
+        <v>575</v>
+      </c>
+      <c r="D137" t="n">
+        <v>545.0499877929688</v>
+      </c>
+      <c r="E137" t="n">
+        <v>568.4000244140625</v>
+      </c>
+      <c r="F137" t="n">
+        <v>32000</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H137" t="n">
+        <v>4</v>
+      </c>
+      <c r="I137" t="n">
+        <v>14</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>16</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B138" t="n">
+        <v>560</v>
+      </c>
+      <c r="C138" t="n">
+        <v>616.2999877929688</v>
+      </c>
+      <c r="D138" t="n">
+        <v>543.2999877929688</v>
+      </c>
+      <c r="E138" t="n">
+        <v>570.7000122070312</v>
+      </c>
+      <c r="F138" t="n">
+        <v>138500</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H138" t="n">
+        <v>4</v>
+      </c>
+      <c r="I138" t="n">
+        <v>21</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>17</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B139" t="n">
+        <v>564</v>
+      </c>
+      <c r="C139" t="n">
+        <v>580</v>
+      </c>
+      <c r="D139" t="n">
+        <v>546.0499877929688</v>
+      </c>
+      <c r="E139" t="n">
+        <v>548.0499877929688</v>
+      </c>
+      <c r="F139" t="n">
+        <v>57500</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+      <c r="I139" t="n">
+        <v>28</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>18</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
